--- a/Projects/CCRU_SAND/Data/with weights/Supermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/with weights/Supermarket PoS 2018.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Supermarket!$A$1:$AP$235</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,156 +29,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="638">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>RD38010002</t>
-  </si>
-  <si>
-    <t>Supermarket</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="639">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -217,262 +218,262 @@
 39</t>
   </si>
   <si>
-    <t>Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 2L</t>
-  </si>
-  <si>
-    <t>Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 1.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.9L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.9л</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л стекло</t>
-  </si>
-  <si>
-    <t>Schweppes Mojito - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Мохито - 1л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 1.5л</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>41
+    <t xml:space="preserve">Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Mojito - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Мохито - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41
 42
 43
 44
@@ -482,61 +483,61 @@
 48</t>
   </si>
   <si>
-    <t>BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Apple - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Яблоко - 0.5л</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>50
+    <t xml:space="preserve">BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Apple - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Яблоко - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50
 51
 52
 53
@@ -544,49 +545,49 @@
 55</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t>Burn Passion Punch - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Тропический микс - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Rossi - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Росси - 0.5л</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>57
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Passion Punch - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Тропический микс - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Rossi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Росси - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57
 58
 59
 60
@@ -597,67 +598,67 @@
 65</t>
   </si>
   <si>
-    <t>Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.33л</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>67
+    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67
 68
 69
 70
@@ -711,370 +712,370 @@
 118</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Mango-Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Манго-Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Rich - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Peach - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Персик - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pomegranate-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Гранат-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pear - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Груша - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Vegetable Mix - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Овощной микс - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Гранат - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Grapefruit - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Грейпфрут - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Berry-Honey - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Медовые ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Mors Cloudberry-Cowberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Морс Брусника-Морошка - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.45л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 1 - 0.11л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie2 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 2 - 0.11л</t>
-  </si>
-  <si>
-    <t>Pulpy - Grapefruit - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Грейпфрут - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pineapple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Ананас - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 20</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>Warm Shelf</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>SSD полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>121
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Mango-Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Манго-Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Peach - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Персик - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pear - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Vegetable Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Овощной микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Гранат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Grapefruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Грейпфрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Berry-Honey - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Медовые ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Mors Cloudberry-Cowberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Морс Брусника-Морошка - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie2 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 2 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Grapefruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Грейпфрут - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pineapple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Ананас - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121
 122
 123
 124
@@ -1083,720 +1084,720 @@
 127</t>
   </si>
   <si>
-    <t>Shelf: SKU on Eye level</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L, Sprite - 1L</t>
-  </si>
-  <si>
-    <t>5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L, Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t>5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t>STANDARD 21</t>
-  </si>
-  <si>
-    <t>Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Water Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>Water Shelf: BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>Вода полка: БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Сок полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Сок полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>133
+    <t xml:space="preserve">Shelf: SKU on Eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L, Sprite - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L, Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133
 134
 135
 136
 137</t>
   </si>
   <si>
-    <t>Juice Shelf: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 24</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Ice Tea</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>140
+    <t xml:space="preserve">Juice Shelf: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140
 141</t>
   </si>
   <si>
-    <t>Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 25</t>
-  </si>
-  <si>
-    <t>Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>STANDARD 19</t>
-  </si>
-  <si>
-    <t>SSD Display 1st</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t>SSD Displays</t>
-  </si>
-  <si>
-    <t>1st SSD Display</t>
-  </si>
-  <si>
-    <t>144
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st SSD Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144
 145
 146</t>
   </si>
   <si>
-    <t>SSD Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>number of scenes</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Coca-Cola 1.5L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 1st</t>
-  </si>
-  <si>
-    <t>148
+    <t xml:space="preserve">SSD Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 1.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148
 149
 150</t>
   </si>
   <si>
-    <t>Displays Merch. Standards</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>1st Juice Display</t>
-  </si>
-  <si>
-    <t>152
+    <t xml:space="preserve">Displays Merch. Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Juice Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152
 153
 154</t>
   </si>
   <si>
-    <t>Juice Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>155
+    <t xml:space="preserve">Juice Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155
 156</t>
   </si>
   <si>
-    <t>Juice Display 1st: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed Juice Display 1st</t>
-  </si>
-  <si>
-    <t>158
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158
 159
 160
 161</t>
   </si>
   <si>
-    <t>Juice Display 1st: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>2nd SSD Display</t>
-  </si>
-  <si>
-    <t>163
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd SSD Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163
 164
 165</t>
   </si>
   <si>
-    <t>SSD Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Deli</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 2d</t>
-  </si>
-  <si>
-    <t>167
+    <t xml:space="preserve">SSD Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167
 168</t>
   </si>
   <si>
-    <t>SSD Display 2d: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Tea Display</t>
-  </si>
-  <si>
-    <t>Чай Дисплей</t>
-  </si>
-  <si>
-    <t>Tea Diplays</t>
-  </si>
-  <si>
-    <t>170
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Diplays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170
 171
 172</t>
   </si>
   <si>
-    <t>Tea Display: Facings</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Tea Display: Zone</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Confectionary/Biscuits section</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
-  </si>
-  <si>
-    <t>173
+    <t xml:space="preserve">Tea Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confectionary/Biscuits section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173
 174</t>
   </si>
   <si>
-    <t>Tea Display: Lead Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Water Display</t>
-  </si>
-  <si>
-    <t>Вода Дисплей</t>
-  </si>
-  <si>
-    <t>Water Displays</t>
-  </si>
-  <si>
-    <t>176
+    <t xml:space="preserve">Tea Display: Lead Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176
 177
 178</t>
   </si>
   <si>
-    <t>Water Display: Facings</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Water Display: Zone</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Entrance of Water section</t>
-  </si>
-  <si>
-    <t>Water Display: Lead SKU BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 3d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й</t>
-  </si>
-  <si>
-    <t>180
+    <t xml:space="preserve">Water Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance of Water section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display: Lead SKU BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180
 181
 182</t>
   </si>
   <si>
-    <t>SSD Display 3d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 3d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Зона</t>
-  </si>
-  <si>
-    <t>Entrance of SSD section</t>
-  </si>
-  <si>
-    <t>SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L share on Display</t>
-  </si>
-  <si>
-    <t>Energy Display</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей</t>
-  </si>
-  <si>
-    <t>Energy Displays</t>
-  </si>
-  <si>
-    <t>184
+    <t xml:space="preserve">SSD Display 3d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance of SSD section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184
 185
 186</t>
   </si>
   <si>
-    <t>Energy Display: Facings</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Energy Display: Zone</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Beer Section</t>
-  </si>
-  <si>
-    <t>Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>187
+    <t xml:space="preserve">Energy Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beer Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187
 188</t>
   </si>
   <si>
-    <t>Energy Display: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t>Energy Display: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>190
+    <t xml:space="preserve">Energy Display: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190
 191</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of doors with more than Target facings</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>Cooler: Max 23</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 23 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>195
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of doors with more than Target facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195
 196
 197
 198
@@ -1808,295 +1809,298 @@
 204</t>
   </si>
   <si>
-    <t>Cooler: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Зеленый - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>5449000233615, 5449000189370</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Черный - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>5449000189301, 5449000189332, 5449000193124</t>
-  </si>
-  <si>
-    <t>Cooler: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler:  w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>RGM Activations</t>
-  </si>
-  <si>
-    <t>RGM Активации</t>
-  </si>
-  <si>
-    <t>210
+    <t xml:space="preserve">Cooler: BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233615, 5449000189370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler:  w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210
 211
 212
 213</t>
   </si>
   <si>
-    <t>RGM Activations SAP</t>
-  </si>
-  <si>
-    <t>RGM Activations: SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: SSD с едой</t>
-  </si>
-  <si>
-    <t>SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Activations: Juice &amp; Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: Сок с едой</t>
-  </si>
-  <si>
-    <t>Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
-  </si>
-  <si>
-    <t>RGM Activations: On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Активации: На ходу</t>
-  </si>
-  <si>
-    <t>On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t>RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t>Screen time</t>
-  </si>
-  <si>
-    <t>Promo Displays</t>
-  </si>
-  <si>
-    <t>Промо дисплеи</t>
-  </si>
-  <si>
-    <t>the result of atomic KPI</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>Promo displays SAP</t>
-  </si>
-  <si>
-    <t>Promo Displays: Facings</t>
-  </si>
-  <si>
-    <t>Промо дисплеи: Фейсинги</t>
-  </si>
-  <si>
-    <t>number of scenes with have at least target amount of facings</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>LOCAL 2</t>
-  </si>
-  <si>
-    <t>number of KPI Passed</t>
-  </si>
-  <si>
-    <t>Session level</t>
-  </si>
-  <si>
-    <t>LOCAL 6</t>
-  </si>
-  <si>
-    <t>KPI result</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>sum of KPI result</t>
-  </si>
-  <si>
-    <t>LOCAL 5</t>
-  </si>
-  <si>
-    <t>LOCAL 7</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Number of doors according to guide for all Coolers</t>
-  </si>
-  <si>
-    <t>Scene level</t>
-  </si>
-  <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
-    <t>POP Activated</t>
-  </si>
-  <si>
-    <t>Y for all Displays</t>
-  </si>
-  <si>
-    <t>Attribute 2</t>
-  </si>
-  <si>
-    <t>Experiantial Activation</t>
-  </si>
-  <si>
-    <t>N for all Displays</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t>Coolers and Displays Zones</t>
-  </si>
-  <si>
-    <t>Scene attribute for all Cooler and Displays</t>
-  </si>
-  <si>
-    <t>Attribute 3</t>
-  </si>
-  <si>
-    <t>Displays Priority Occasion</t>
-  </si>
-  <si>
-    <t>No_O_A</t>
-  </si>
-  <si>
-    <t>MealsAtHo</t>
-  </si>
-  <si>
-    <t>MeTimeAtH</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">RGM Activations SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Juice &amp; Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Сок с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: На ходу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: У Экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the result of atomic KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo displays SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of doors according to guide for all Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiantial Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers and Displays Zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene attribute for all Cooler and Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays Priority Occasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MealsAtHo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeTimeAtH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="0%"/>
@@ -2903,10 +2907,10 @@
   </sheetPr>
   <dimension ref="A1:AO235"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AD67" activeCellId="0" sqref="AD67"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H121" activeCellId="0" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2914,10 +2918,10 @@
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -21249,13 +21253,15 @@
       <c r="G219" s="101" t="s">
         <v>603</v>
       </c>
-      <c r="H219" s="48" t="s">
+      <c r="H219" s="71" t="s">
         <v>604</v>
       </c>
       <c r="I219" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" s="48" t="n">
         <v>8</v>
       </c>
-      <c r="J219" s="48"/>
       <c r="K219" s="48"/>
       <c r="L219" s="48" t="s">
         <v>300</v>
@@ -21292,7 +21298,9 @@
       </c>
       <c r="AE219" s="48"/>
       <c r="AF219" s="48"/>
-      <c r="AG219" s="48"/>
+      <c r="AG219" s="47" t="s">
+        <v>606</v>
+      </c>
       <c r="AH219" s="48"/>
       <c r="AI219" s="48"/>
       <c r="AJ219" s="11" t="n">
@@ -21319,20 +21327,20 @@
         <v>42</v>
       </c>
       <c r="D220" s="107" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E220" s="108" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F220" s="109" t="s">
         <v>313</v>
       </c>
       <c r="G220" s="110"/>
       <c r="H220" s="111" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I220" s="112" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J220" s="110"/>
       <c r="K220" s="110"/>
@@ -21384,20 +21392,20 @@
         <v>42</v>
       </c>
       <c r="D221" s="107" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E221" s="85" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F221" s="115" t="s">
         <v>584</v>
       </c>
       <c r="G221" s="110"/>
       <c r="H221" s="110" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I221" s="112" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J221" s="110"/>
       <c r="K221" s="110"/>
@@ -21449,20 +21457,20 @@
         <v>42</v>
       </c>
       <c r="D222" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E222" s="85" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F222" s="85" t="s">
         <v>535</v>
       </c>
       <c r="G222" s="110"/>
       <c r="H222" s="110" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I222" s="112" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J222" s="110"/>
       <c r="K222" s="110"/>
@@ -21514,20 +21522,20 @@
         <v>42</v>
       </c>
       <c r="D223" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E223" s="85" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F223" s="85" t="s">
         <v>601</v>
       </c>
       <c r="G223" s="110"/>
       <c r="H223" s="110" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I223" s="112" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J223" s="110"/>
       <c r="K223" s="110"/>
@@ -21577,20 +21585,20 @@
         <v>42</v>
       </c>
       <c r="D224" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E224" s="85" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F224" s="85" t="s">
         <v>398</v>
       </c>
       <c r="G224" s="110"/>
       <c r="H224" s="111" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I224" s="112" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J224" s="110"/>
       <c r="K224" s="110"/>
@@ -21640,20 +21648,20 @@
         <v>42</v>
       </c>
       <c r="D225" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E225" s="85" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F225" s="85" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G225" s="110"/>
       <c r="H225" s="111" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I225" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J225" s="110"/>
       <c r="K225" s="110"/>
@@ -21705,20 +21713,20 @@
         <v>42</v>
       </c>
       <c r="D226" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E226" s="85" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F226" s="85" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G226" s="110"/>
       <c r="H226" s="111" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I226" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J226" s="110"/>
       <c r="K226" s="110"/>
@@ -21770,20 +21778,20 @@
         <v>42</v>
       </c>
       <c r="D227" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E227" s="85" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F227" s="85" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G227" s="110"/>
       <c r="H227" s="111" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I227" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J227" s="110"/>
       <c r="K227" s="110"/>
@@ -21835,20 +21843,20 @@
         <v>42</v>
       </c>
       <c r="D228" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E228" s="85" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F228" s="85" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G228" s="110"/>
       <c r="H228" s="111" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I228" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J228" s="110"/>
       <c r="K228" s="110"/>
@@ -21900,22 +21908,22 @@
         <v>42</v>
       </c>
       <c r="D229" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E229" s="85" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F229" s="85" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G229" s="110" t="s">
         <v>377</v>
       </c>
       <c r="H229" s="111" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I229" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J229" s="110"/>
       <c r="K229" s="110"/>
@@ -21963,22 +21971,22 @@
         <v>42</v>
       </c>
       <c r="D230" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E230" s="85" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F230" s="85" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G230" s="110" t="s">
         <v>405</v>
       </c>
       <c r="H230" s="111" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I230" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J230" s="110"/>
       <c r="K230" s="110"/>
@@ -22026,22 +22034,22 @@
         <v>42</v>
       </c>
       <c r="D231" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E231" s="85" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F231" s="85" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G231" s="110" t="s">
         <v>437</v>
       </c>
       <c r="H231" s="111" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I231" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J231" s="110"/>
       <c r="K231" s="110"/>
@@ -22089,22 +22097,22 @@
         <v>42</v>
       </c>
       <c r="D232" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E232" s="85" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F232" s="85" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G232" s="110" t="s">
         <v>456</v>
       </c>
       <c r="H232" s="111" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I232" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J232" s="110"/>
       <c r="K232" s="110"/>
@@ -22152,22 +22160,22 @@
         <v>42</v>
       </c>
       <c r="D233" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E233" s="85" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F233" s="85" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G233" s="110" t="s">
         <v>474</v>
       </c>
       <c r="H233" s="111" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I233" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J233" s="110"/>
       <c r="K233" s="110"/>
@@ -22215,22 +22223,22 @@
         <v>42</v>
       </c>
       <c r="D234" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E234" s="85" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F234" s="85" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G234" s="110" t="s">
         <v>486</v>
       </c>
       <c r="H234" s="111" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I234" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J234" s="110"/>
       <c r="K234" s="110"/>
@@ -22278,22 +22286,22 @@
         <v>42</v>
       </c>
       <c r="D235" s="116" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E235" s="85" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F235" s="85" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G235" s="110" t="s">
         <v>497</v>
       </c>
       <c r="H235" s="111" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I235" s="112" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J235" s="110"/>
       <c r="K235" s="110"/>
@@ -22416,10 +22424,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="120" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1" s="120" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I1" s="120" t="s">
         <v>32</v>
@@ -22428,7 +22436,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="120" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L1" s="120" t="s">
         <v>33</v>
@@ -22439,7 +22447,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="121" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
